--- a/examples-tracking/matlab_examples-inventory.xlsx
+++ b/examples-tracking/matlab_examples-inventory.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\examples-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A41CAAA-0B07-4053-839A-D007BE084343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E76E27C-B6B1-45FF-AB34-3E2BB0466AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio2" sheetId="3" r:id="rId1"/>
-    <sheet name="Foglio1" sheetId="1" r:id="rId2"/>
+    <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId3"/>
+    <pivotCache cacheId="20" r:id="rId3"/>
   </pivotCaches>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Stream</t>
   </si>
@@ -51,9 +48,6 @@
   </si>
   <si>
     <t>.\sources\BasketballPass_416x240_50.yuv</t>
-  </si>
-  <si>
-    <t>Conteggio di ExampleNum</t>
   </si>
   <si>
     <t>ExampleNum</t>
@@ -92,6 +86,9 @@
     <t>.\sources\BasketballPass_416x240_50.yuv</t>
   </si>
   <si>
+    <t>.\sources\RaceHorses_416x240_30.yuv</t>
+  </si>
+  <si>
     <t>POC_Cur</t>
   </si>
   <si>
@@ -100,18 +97,21 @@
   <si>
     <t>y0</t>
   </si>
+  <si>
+    <t>Par</t>
+  </si>
+  <si>
+    <t>Conteggio di ExampleNum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,7 +169,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[matlab_examples-inventory.xlsx]Foglio2!Tabella pivot13</c:name>
+    <c:name>[matlab_examples-inventory.xlsx]Foglio1!Tabella pivot11</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -298,7 +298,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio2!$B$3</c:f>
+              <c:f>Foglio1!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -319,7 +319,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio2!$A$4:$A$6</c:f>
+              <c:f>Foglio1!$A$4:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -336,15 +336,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio2!$B$4:$B$6</c:f>
+              <c:f>Foglio1!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9</c:v>
@@ -354,7 +354,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E5C9-4EDC-B7BD-DDB8BED39585}"/>
+              <c16:uniqueId val="{00000000-4536-48BF-910B-9689FC9C2DCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -367,11 +367,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1434134880"/>
-        <c:axId val="1434134048"/>
+        <c:axId val="1379656912"/>
+        <c:axId val="1379661904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1434134880"/>
+        <c:axId val="1379656912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -414,7 +414,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1434134048"/>
+        <c:crossAx val="1379661904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -422,7 +422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1434134048"/>
+        <c:axId val="1379661904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,7 +473,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1434134880"/>
+        <c:crossAx val="1379656912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1102,7 +1102,7 @@
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDCABC6-AFC6-4307-99CD-097754A6E836}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA72675-F4CA-40AF-9397-B6F17581C08D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1124,13 +1124,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Costantino Taranto" refreshedDate="44630.52503877315" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="23" xr:uid="{F1AE3319-2EC1-4096-B26E-1B3A6D0DC203}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Costantino Taranto" refreshedDate="44630.789309953703" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="25" xr:uid="{4AB5141C-CDB3-4B15-A0DE-B24B7F54286F}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E24" sheet="Foglio1"/>
+    <worksheetSource ref="A1:F26" sheet="Sheet1"/>
   </cacheSource>
-  <cacheFields count="5">
+  <cacheFields count="6">
     <cacheField name="ExampleNum" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="25"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="27"/>
     </cacheField>
     <cacheField name="Stream" numFmtId="0">
       <sharedItems count="3">
@@ -1148,6 +1148,9 @@
     <cacheField name="y0" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="32" maxValue="200"/>
     </cacheField>
+    <cacheField name="Par" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="6"/>
+    </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -1158,13 +1161,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="23">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="25">
   <r>
     <n v="3"/>
     <x v="0"/>
     <n v="4"/>
     <n v="208"/>
     <n v="160"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="4"/>
@@ -1172,6 +1176,7 @@
     <n v="4"/>
     <n v="256"/>
     <n v="64"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="5"/>
@@ -1179,6 +1184,7 @@
     <n v="3"/>
     <n v="192"/>
     <n v="160"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="6"/>
@@ -1186,6 +1192,7 @@
     <n v="28"/>
     <n v="192"/>
     <n v="96"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="7"/>
@@ -1193,6 +1200,7 @@
     <n v="1"/>
     <n v="96"/>
     <n v="192"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="8"/>
@@ -1200,6 +1208,7 @@
     <n v="12"/>
     <n v="160"/>
     <n v="128"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="9"/>
@@ -1207,6 +1216,7 @@
     <n v="34"/>
     <n v="208"/>
     <n v="96"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="10"/>
@@ -1214,6 +1224,7 @@
     <n v="49"/>
     <n v="224"/>
     <n v="104"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="11"/>
@@ -1221,6 +1232,7 @@
     <n v="1"/>
     <n v="64"/>
     <n v="128"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="12"/>
@@ -1228,6 +1240,7 @@
     <n v="1"/>
     <n v="64"/>
     <n v="96"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="13"/>
@@ -1235,6 +1248,7 @@
     <n v="1"/>
     <n v="256"/>
     <n v="160"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="14"/>
@@ -1242,6 +1256,7 @@
     <n v="1"/>
     <n v="256"/>
     <n v="64"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="15"/>
@@ -1249,6 +1264,7 @@
     <n v="2"/>
     <n v="128"/>
     <n v="80"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="16"/>
@@ -1256,6 +1272,7 @@
     <n v="1"/>
     <n v="256"/>
     <n v="176"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="17"/>
@@ -1263,6 +1280,7 @@
     <n v="1"/>
     <n v="96"/>
     <n v="32"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="18"/>
@@ -1270,6 +1288,7 @@
     <n v="2"/>
     <n v="128"/>
     <n v="160"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="19"/>
@@ -1277,6 +1296,7 @@
     <n v="2"/>
     <n v="224"/>
     <n v="200"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="20"/>
@@ -1284,6 +1304,7 @@
     <n v="5"/>
     <n v="64"/>
     <n v="200"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="21"/>
@@ -1291,6 +1312,7 @@
     <n v="7"/>
     <n v="240"/>
     <n v="80"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="22"/>
@@ -1298,6 +1320,7 @@
     <n v="3"/>
     <n v="224"/>
     <n v="128"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="23"/>
@@ -1305,6 +1328,7 @@
     <n v="4"/>
     <n v="160"/>
     <n v="152"/>
+    <n v="6"/>
   </r>
   <r>
     <n v="24"/>
@@ -1312,6 +1336,7 @@
     <n v="4"/>
     <n v="160"/>
     <n v="128"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="25"/>
@@ -1319,14 +1344,31 @@
     <n v="25"/>
     <n v="16"/>
     <n v="160"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="2"/>
+    <n v="29"/>
+    <n v="32"/>
+    <n v="144"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="192"/>
+    <n v="144"/>
+    <n v="6"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2C34B24-E2BB-440C-B150-3A347A55C8B2}" name="Tabella pivot13" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4EE93DEB-1ED3-4952-8F2E-3CB814399E18}" name="Tabella pivot11" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
+  <pivotFields count="6">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -1340,6 +1382,13 @@
         <item x="0"/>
         <item x="1"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
@@ -1707,44 +1756,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4E9EB4-62C6-4EB3-BD86-6C6AB36DB89F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02D1C29-0C48-43FB-969C-E8E776FF3FDA}">
   <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1759,27 +1808,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2165852B-3007-42EF-894E-C8938CCA59C1}">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E24"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" customWidth="1"/>
     <col min="4" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
@@ -1790,13 +1840,16 @@
       <c r="E1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -1807,13 +1860,16 @@
       <c r="E2">
         <v>160</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1824,13 +1880,16 @@
       <c r="E3">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1841,13 +1900,16 @@
       <c r="E4">
         <v>160</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>28</v>
@@ -1858,13 +1920,16 @@
       <c r="E5">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1875,13 +1940,16 @@
       <c r="E6">
         <v>192</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -1892,13 +1960,16 @@
       <c r="E7">
         <v>128</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>34</v>
@@ -1909,13 +1980,16 @@
       <c r="E8">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>49</v>
@@ -1926,13 +2000,16 @@
       <c r="E9">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1943,13 +2020,16 @@
       <c r="E10">
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1960,13 +2040,16 @@
       <c r="E11">
         <v>96</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1977,13 +2060,16 @@
       <c r="E12">
         <v>160</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1994,13 +2080,16 @@
       <c r="E13">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2011,13 +2100,16 @@
       <c r="E14">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2028,13 +2120,16 @@
       <c r="E15">
         <v>176</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2045,13 +2140,16 @@
       <c r="E16">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2062,13 +2160,16 @@
       <c r="E17">
         <v>160</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -2079,13 +2180,16 @@
       <c r="E18">
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -2096,13 +2200,16 @@
       <c r="E19">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -2113,13 +2220,16 @@
       <c r="E20">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -2130,13 +2240,16 @@
       <c r="E21">
         <v>128</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -2147,13 +2260,16 @@
       <c r="E22">
         <v>152</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -2164,13 +2280,16 @@
       <c r="E23">
         <v>128</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>25</v>
@@ -2180,6 +2299,49 @@
       </c>
       <c r="E24">
         <v>160</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>32</v>
+      </c>
+      <c r="E25">
+        <v>144</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>192</v>
+      </c>
+      <c r="E26">
+        <v>144</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/examples-tracking/matlab_examples-inventory.xlsx
+++ b/examples-tracking/matlab_examples-inventory.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>ExampleNum</t>
   </si>
@@ -140,6 +140,66 @@
   </si>
   <si>
     <t>Par</t>
+  </si>
+  <si>
+    <t>ExampleNum</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>.\sources\RaceHorses_416x240_30.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\VQ_sample_432x240.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\RaceHorses_416x240_30.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\VQ_sample_432x240.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\BasketballPass_416x240_50.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\VQ_sample_432x240.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\RaceHorses_416x240_30.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\BasketballPass_416x240_50.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\VQ_sample_432x240.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\BasketballPass_416x240_50.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\RaceHorses_416x240_30.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\BasketballPass_416x240_50.yuv</t>
+  </si>
+  <si>
+    <t>POC_Cur</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>y0</t>
+  </si>
+  <si>
+    <t>Par</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -160,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -169,13 +229,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -490,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
@@ -504,26 +566,34 @@
     <col min="4" max="4" width="4.140625" customWidth="true"/>
     <col min="6" max="6" width="4" customWidth="true"/>
     <col min="5" max="5" width="4.140625" customWidth="true"/>
+    <col min="7" max="7" width="3.140625" customWidth="true"/>
+    <col min="8" max="8" width="3.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -531,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0">
         <v>4</v>
@@ -545,13 +615,19 @@
       <c r="F2" s="0">
         <v>4</v>
       </c>
+      <c r="G2" s="0">
+        <v>32</v>
+      </c>
+      <c r="H2" s="0">
+        <v>32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0">
         <v>4</v>
@@ -564,6 +640,12 @@
       </c>
       <c r="F3" s="0">
         <v>4</v>
+      </c>
+      <c r="G3" s="0">
+        <v>16</v>
+      </c>
+      <c r="H3" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -571,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C4" s="0">
         <v>3</v>
@@ -584,6 +666,12 @@
       </c>
       <c r="F4" s="0">
         <v>4</v>
+      </c>
+      <c r="G4" s="0">
+        <v>32</v>
+      </c>
+      <c r="H4" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -591,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0">
         <v>28</v>
@@ -604,6 +692,12 @@
       </c>
       <c r="F5" s="0">
         <v>4</v>
+      </c>
+      <c r="G5" s="0">
+        <v>16</v>
+      </c>
+      <c r="H5" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -611,7 +705,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0">
         <v>1</v>
@@ -624,6 +718,12 @@
       </c>
       <c r="F6" s="0">
         <v>6</v>
+      </c>
+      <c r="G6" s="0">
+        <v>32</v>
+      </c>
+      <c r="H6" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -631,7 +731,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C7" s="0">
         <v>12</v>
@@ -644,6 +744,12 @@
       </c>
       <c r="F7" s="0">
         <v>6</v>
+      </c>
+      <c r="G7" s="0">
+        <v>32</v>
+      </c>
+      <c r="H7" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -651,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0">
         <v>34</v>
@@ -664,6 +770,12 @@
       </c>
       <c r="F8" s="0">
         <v>6</v>
+      </c>
+      <c r="G8" s="0">
+        <v>32</v>
+      </c>
+      <c r="H8" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0">
         <v>49</v>
@@ -684,6 +796,12 @@
       </c>
       <c r="F9" s="0">
         <v>6</v>
+      </c>
+      <c r="G9" s="0">
+        <v>16</v>
+      </c>
+      <c r="H9" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -691,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0">
         <v>1</v>
@@ -704,6 +822,12 @@
       </c>
       <c r="F10" s="0">
         <v>6</v>
+      </c>
+      <c r="G10" s="0">
+        <v>32</v>
+      </c>
+      <c r="H10" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -711,7 +835,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C11" s="0">
         <v>1</v>
@@ -724,6 +848,12 @@
       </c>
       <c r="F11" s="0">
         <v>6</v>
+      </c>
+      <c r="G11" s="0">
+        <v>32</v>
+      </c>
+      <c r="H11" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -731,7 +861,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0">
         <v>1</v>
@@ -744,6 +874,12 @@
       </c>
       <c r="F12" s="0">
         <v>4</v>
+      </c>
+      <c r="G12" s="0">
+        <v>32</v>
+      </c>
+      <c r="H12" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -751,7 +887,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0">
         <v>1</v>
@@ -764,6 +900,12 @@
       </c>
       <c r="F13" s="0">
         <v>6</v>
+      </c>
+      <c r="G13" s="0">
+        <v>64</v>
+      </c>
+      <c r="H13" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -771,7 +913,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0">
         <v>2</v>
@@ -785,13 +927,19 @@
       <c r="F14" s="0">
         <v>4</v>
       </c>
+      <c r="G14" s="0">
+        <v>16</v>
+      </c>
+      <c r="H14" s="0">
+        <v>32</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
         <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0">
         <v>1</v>
@@ -804,6 +952,12 @@
       </c>
       <c r="F15" s="0">
         <v>4</v>
+      </c>
+      <c r="G15" s="0">
+        <v>32</v>
+      </c>
+      <c r="H15" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -811,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0">
         <v>1</v>
@@ -824,6 +978,12 @@
       </c>
       <c r="F16" s="0">
         <v>6</v>
+      </c>
+      <c r="G16" s="0">
+        <v>32</v>
+      </c>
+      <c r="H16" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -831,7 +991,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C17" s="0">
         <v>2</v>
@@ -844,6 +1004,12 @@
       </c>
       <c r="F17" s="0">
         <v>4</v>
+      </c>
+      <c r="G17" s="0">
+        <v>32</v>
+      </c>
+      <c r="H17" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -851,7 +1017,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0">
         <v>2</v>
@@ -864,6 +1030,12 @@
       </c>
       <c r="F18" s="0">
         <v>4</v>
+      </c>
+      <c r="G18" s="0">
+        <v>32</v>
+      </c>
+      <c r="H18" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -871,7 +1043,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0">
         <v>5</v>
@@ -884,6 +1056,12 @@
       </c>
       <c r="F19" s="0">
         <v>4</v>
+      </c>
+      <c r="G19" s="0">
+        <v>64</v>
+      </c>
+      <c r="H19" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -891,7 +1069,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0">
         <v>7</v>
@@ -904,6 +1082,12 @@
       </c>
       <c r="F20" s="0">
         <v>6</v>
+      </c>
+      <c r="G20" s="0">
+        <v>16</v>
+      </c>
+      <c r="H20" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -911,7 +1095,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C21" s="0">
         <v>3</v>
@@ -924,6 +1108,12 @@
       </c>
       <c r="F21" s="0">
         <v>6</v>
+      </c>
+      <c r="G21" s="0">
+        <v>32</v>
+      </c>
+      <c r="H21" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -931,7 +1121,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C22" s="0">
         <v>4</v>
@@ -944,6 +1134,12 @@
       </c>
       <c r="F22" s="0">
         <v>6</v>
+      </c>
+      <c r="G22" s="0">
+        <v>32</v>
+      </c>
+      <c r="H22" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -951,7 +1147,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C23" s="0">
         <v>4</v>
@@ -964,6 +1160,12 @@
       </c>
       <c r="F23" s="0">
         <v>4</v>
+      </c>
+      <c r="G23" s="0">
+        <v>32</v>
+      </c>
+      <c r="H23" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -971,7 +1173,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C24" s="0">
         <v>25</v>
@@ -984,6 +1186,12 @@
       </c>
       <c r="F24" s="0">
         <v>6</v>
+      </c>
+      <c r="G24" s="0">
+        <v>16</v>
+      </c>
+      <c r="H24" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -991,7 +1199,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C25" s="0">
         <v>29</v>
@@ -1004,6 +1212,12 @@
       </c>
       <c r="F25" s="0">
         <v>4</v>
+      </c>
+      <c r="G25" s="0">
+        <v>16</v>
+      </c>
+      <c r="H25" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -1011,7 +1225,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C26" s="0">
         <v>3</v>
@@ -1024,6 +1238,12 @@
       </c>
       <c r="F26" s="0">
         <v>6</v>
+      </c>
+      <c r="G26" s="0">
+        <v>64</v>
+      </c>
+      <c r="H26" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -1031,7 +1251,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C27" s="0">
         <v>5</v>
@@ -1044,6 +1264,12 @@
       </c>
       <c r="F27" s="0">
         <v>4</v>
+      </c>
+      <c r="G27" s="0">
+        <v>16</v>
+      </c>
+      <c r="H27" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -1051,7 +1277,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C28" s="0">
         <v>38</v>
@@ -1064,6 +1290,12 @@
       </c>
       <c r="F28" s="0">
         <v>4</v>
+      </c>
+      <c r="G28" s="0">
+        <v>16</v>
+      </c>
+      <c r="H28" s="0">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/examples-tracking/matlab_examples-inventory.xlsx
+++ b/examples-tracking/matlab_examples-inventory.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
   <si>
     <t>ExampleNum</t>
   </si>
@@ -200,6 +200,72 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>ExampleNum</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>.\sources\RaceHorses_416x240_30.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\VQ_sample_432x240.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\RaceHorses_416x240_30.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\VQ_sample_432x240.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\BasketballPass_416x240_50.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\VQ_sample_432x240.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\RaceHorses_416x240_30.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\BasketballPass_416x240_50.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\VQ_sample_432x240.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\BasketballPass_416x240_50.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\RaceHorses_416x240_30.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\BasketballPass_416x240_50.yuv</t>
+  </si>
+  <si>
+    <t>POC_Cur</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>y0</t>
+  </si>
+  <si>
+    <t>Par</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>frame_w</t>
+  </si>
+  <si>
+    <t>frame_h</t>
   </si>
 </sst>
 </file>
@@ -220,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -230,14 +296,16 @@
     </border>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -552,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
@@ -568,32 +636,40 @@
     <col min="5" max="5" width="4.140625" customWidth="true"/>
     <col min="7" max="7" width="3.140625" customWidth="true"/>
     <col min="8" max="8" width="3.140625" customWidth="true"/>
+    <col min="9" max="9" width="9" customWidth="true"/>
+    <col min="10" max="10" width="8.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>55</v>
+        <v>75</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2">
@@ -601,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C2" s="0">
         <v>4</v>
@@ -621,13 +697,19 @@
       <c r="H2" s="0">
         <v>32</v>
       </c>
+      <c r="I2" s="0">
+        <v>416</v>
+      </c>
+      <c r="J2" s="0">
+        <v>240</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0">
         <v>4</v>
@@ -646,6 +728,12 @@
       </c>
       <c r="H3" s="0">
         <v>32</v>
+      </c>
+      <c r="I3" s="0">
+        <v>416</v>
+      </c>
+      <c r="J3" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="4">
@@ -653,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C4" s="0">
         <v>3</v>
@@ -672,6 +760,12 @@
       </c>
       <c r="H4" s="0">
         <v>32</v>
+      </c>
+      <c r="I4" s="0">
+        <v>432</v>
+      </c>
+      <c r="J4" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="5">
@@ -679,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C5" s="0">
         <v>28</v>
@@ -698,6 +792,12 @@
       </c>
       <c r="H5" s="0">
         <v>32</v>
+      </c>
+      <c r="I5" s="0">
+        <v>432</v>
+      </c>
+      <c r="J5" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="6">
@@ -705,7 +805,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0">
         <v>1</v>
@@ -724,6 +824,12 @@
       </c>
       <c r="H6" s="0">
         <v>32</v>
+      </c>
+      <c r="I6" s="0">
+        <v>416</v>
+      </c>
+      <c r="J6" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="7">
@@ -731,7 +837,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C7" s="0">
         <v>12</v>
@@ -750,6 +856,12 @@
       </c>
       <c r="H7" s="0">
         <v>16</v>
+      </c>
+      <c r="I7" s="0">
+        <v>432</v>
+      </c>
+      <c r="J7" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="8">
@@ -757,7 +869,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C8" s="0">
         <v>34</v>
@@ -776,6 +888,12 @@
       </c>
       <c r="H8" s="0">
         <v>32</v>
+      </c>
+      <c r="I8" s="0">
+        <v>432</v>
+      </c>
+      <c r="J8" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="9">
@@ -783,7 +901,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C9" s="0">
         <v>49</v>
@@ -802,6 +920,12 @@
       </c>
       <c r="H9" s="0">
         <v>16</v>
+      </c>
+      <c r="I9" s="0">
+        <v>416</v>
+      </c>
+      <c r="J9" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="10">
@@ -809,7 +933,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C10" s="0">
         <v>1</v>
@@ -828,6 +952,12 @@
       </c>
       <c r="H10" s="0">
         <v>32</v>
+      </c>
+      <c r="I10" s="0">
+        <v>416</v>
+      </c>
+      <c r="J10" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="11">
@@ -835,7 +965,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C11" s="0">
         <v>1</v>
@@ -854,6 +984,12 @@
       </c>
       <c r="H11" s="0">
         <v>32</v>
+      </c>
+      <c r="I11" s="0">
+        <v>416</v>
+      </c>
+      <c r="J11" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="12">
@@ -861,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C12" s="0">
         <v>1</v>
@@ -880,6 +1016,12 @@
       </c>
       <c r="H12" s="0">
         <v>32</v>
+      </c>
+      <c r="I12" s="0">
+        <v>416</v>
+      </c>
+      <c r="J12" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="13">
@@ -887,7 +1029,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C13" s="0">
         <v>1</v>
@@ -906,6 +1048,12 @@
       </c>
       <c r="H13" s="0">
         <v>32</v>
+      </c>
+      <c r="I13" s="0">
+        <v>432</v>
+      </c>
+      <c r="J13" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="14">
@@ -913,7 +1061,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C14" s="0">
         <v>2</v>
@@ -933,13 +1081,19 @@
       <c r="H14" s="0">
         <v>32</v>
       </c>
+      <c r="I14" s="0">
+        <v>432</v>
+      </c>
+      <c r="J14" s="0">
+        <v>240</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
         <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C15" s="0">
         <v>1</v>
@@ -958,6 +1112,12 @@
       </c>
       <c r="H15" s="0">
         <v>16</v>
+      </c>
+      <c r="I15" s="0">
+        <v>416</v>
+      </c>
+      <c r="J15" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="16">
@@ -965,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C16" s="0">
         <v>1</v>
@@ -984,6 +1144,12 @@
       </c>
       <c r="H16" s="0">
         <v>32</v>
+      </c>
+      <c r="I16" s="0">
+        <v>416</v>
+      </c>
+      <c r="J16" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="17">
@@ -991,7 +1157,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C17" s="0">
         <v>2</v>
@@ -1010,6 +1176,12 @@
       </c>
       <c r="H17" s="0">
         <v>32</v>
+      </c>
+      <c r="I17" s="0">
+        <v>416</v>
+      </c>
+      <c r="J17" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="18">
@@ -1017,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C18" s="0">
         <v>2</v>
@@ -1036,6 +1208,12 @@
       </c>
       <c r="H18" s="0">
         <v>16</v>
+      </c>
+      <c r="I18" s="0">
+        <v>416</v>
+      </c>
+      <c r="J18" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="19">
@@ -1043,7 +1221,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C19" s="0">
         <v>5</v>
@@ -1062,6 +1240,12 @@
       </c>
       <c r="H19" s="0">
         <v>16</v>
+      </c>
+      <c r="I19" s="0">
+        <v>416</v>
+      </c>
+      <c r="J19" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="20">
@@ -1069,7 +1253,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C20" s="0">
         <v>7</v>
@@ -1088,6 +1272,12 @@
       </c>
       <c r="H20" s="0">
         <v>32</v>
+      </c>
+      <c r="I20" s="0">
+        <v>416</v>
+      </c>
+      <c r="J20" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="21">
@@ -1095,7 +1285,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C21" s="0">
         <v>3</v>
@@ -1114,6 +1304,12 @@
       </c>
       <c r="H21" s="0">
         <v>32</v>
+      </c>
+      <c r="I21" s="0">
+        <v>432</v>
+      </c>
+      <c r="J21" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="22">
@@ -1121,7 +1317,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C22" s="0">
         <v>4</v>
@@ -1140,6 +1336,12 @@
       </c>
       <c r="H22" s="0">
         <v>16</v>
+      </c>
+      <c r="I22" s="0">
+        <v>432</v>
+      </c>
+      <c r="J22" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="23">
@@ -1147,7 +1349,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C23" s="0">
         <v>4</v>
@@ -1166,6 +1368,12 @@
       </c>
       <c r="H23" s="0">
         <v>16</v>
+      </c>
+      <c r="I23" s="0">
+        <v>432</v>
+      </c>
+      <c r="J23" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="24">
@@ -1173,7 +1381,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C24" s="0">
         <v>25</v>
@@ -1192,6 +1400,12 @@
       </c>
       <c r="H24" s="0">
         <v>32</v>
+      </c>
+      <c r="I24" s="0">
+        <v>416</v>
+      </c>
+      <c r="J24" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="25">
@@ -1199,7 +1413,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C25" s="0">
         <v>29</v>
@@ -1218,6 +1432,12 @@
       </c>
       <c r="H25" s="0">
         <v>16</v>
+      </c>
+      <c r="I25" s="0">
+        <v>416</v>
+      </c>
+      <c r="J25" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="26">
@@ -1225,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C26" s="0">
         <v>3</v>
@@ -1244,6 +1464,12 @@
       </c>
       <c r="H26" s="0">
         <v>32</v>
+      </c>
+      <c r="I26" s="0">
+        <v>416</v>
+      </c>
+      <c r="J26" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="27">
@@ -1251,7 +1477,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C27" s="0">
         <v>5</v>
@@ -1270,6 +1496,12 @@
       </c>
       <c r="H27" s="0">
         <v>16</v>
+      </c>
+      <c r="I27" s="0">
+        <v>416</v>
+      </c>
+      <c r="J27" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="28">
@@ -1277,7 +1509,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C28" s="0">
         <v>38</v>
@@ -1296,6 +1528,12 @@
       </c>
       <c r="H28" s="0">
         <v>16</v>
+      </c>
+      <c r="I28" s="0">
+        <v>416</v>
+      </c>
+      <c r="J28" s="0">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/examples-tracking/matlab_examples-inventory.xlsx
+++ b/examples-tracking/matlab_examples-inventory.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="126">
   <si>
     <t>ExampleNum</t>
   </si>
@@ -239,6 +239,150 @@
   </si>
   <si>
     <t>.\sources\RaceHorses_416x240_30.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\BasketballPass_416x240_50.yuv</t>
+  </si>
+  <si>
+    <t>POC_Cur</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>y0</t>
+  </si>
+  <si>
+    <t>Par</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>frame_w</t>
+  </si>
+  <si>
+    <t>frame_h</t>
+  </si>
+  <si>
+    <t>ExampleNum</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>.\sources\RaceHorses_416x240_30.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\VQ_sample_432x240.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\RaceHorses_416x240_30.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\VQ_sample_432x240.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\BasketballPass_416x240_50.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\VQ_sample_432x240.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\RaceHorses_416x240_30.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\BasketballPass_416x240_50.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\VQ_sample_432x240.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\BasketballPass_416x240_50.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\RaceHorses_416x240_30.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\BasketballPass_416x240_50.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\VQ_sample_432x240.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\BasketballPass_416x240_50.yuv</t>
+  </si>
+  <si>
+    <t>POC_Cur</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>y0</t>
+  </si>
+  <si>
+    <t>Par</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>frame_w</t>
+  </si>
+  <si>
+    <t>frame_h</t>
+  </si>
+  <si>
+    <t>ExampleNum</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>.\sources\RaceHorses_416x240_30.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\VQ_sample_432x240.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\RaceHorses_416x240_30.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\VQ_sample_432x240.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\BasketballPass_416x240_50.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\VQ_sample_432x240.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\RaceHorses_416x240_30.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\BasketballPass_416x240_50.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\VQ_sample_432x240.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\BasketballPass_416x240_50.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\RaceHorses_416x240_30.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\BasketballPass_416x240_50.yuv</t>
+  </si>
+  <si>
+    <t>.\sources\VQ_sample_432x240.yuv</t>
   </si>
   <si>
     <t>.\sources\BasketballPass_416x240_50.yuv</t>
@@ -286,7 +430,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -297,15 +441,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -620,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
@@ -642,34 +790,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
@@ -677,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="C2" s="0">
         <v>4</v>
@@ -709,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="C3" s="0">
         <v>4</v>
@@ -741,7 +889,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C4" s="0">
         <v>3</v>
@@ -773,7 +921,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C5" s="0">
         <v>28</v>
@@ -805,7 +953,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C6" s="0">
         <v>1</v>
@@ -837,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C7" s="0">
         <v>12</v>
@@ -869,7 +1017,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C8" s="0">
         <v>34</v>
@@ -901,7 +1049,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C9" s="0">
         <v>49</v>
@@ -933,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C10" s="0">
         <v>1</v>
@@ -965,7 +1113,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C11" s="0">
         <v>1</v>
@@ -997,7 +1145,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C12" s="0">
         <v>1</v>
@@ -1029,7 +1177,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C13" s="0">
         <v>1</v>
@@ -1061,7 +1209,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C14" s="0">
         <v>2</v>
@@ -1093,7 +1241,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="C15" s="0">
         <v>1</v>
@@ -1125,7 +1273,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="C16" s="0">
         <v>1</v>
@@ -1157,7 +1305,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="C17" s="0">
         <v>2</v>
@@ -1189,7 +1337,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="C18" s="0">
         <v>2</v>
@@ -1221,7 +1369,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C19" s="0">
         <v>5</v>
@@ -1253,7 +1401,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C20" s="0">
         <v>7</v>
@@ -1285,7 +1433,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C21" s="0">
         <v>3</v>
@@ -1317,7 +1465,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C22" s="0">
         <v>4</v>
@@ -1349,7 +1497,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C23" s="0">
         <v>4</v>
@@ -1381,7 +1529,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C24" s="0">
         <v>25</v>
@@ -1413,7 +1561,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C25" s="0">
         <v>29</v>
@@ -1445,7 +1593,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C26" s="0">
         <v>3</v>
@@ -1477,7 +1625,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C27" s="0">
         <v>5</v>
@@ -1509,7 +1657,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C28" s="0">
         <v>38</v>
@@ -1533,6 +1681,102 @@
         <v>416</v>
       </c>
       <c r="J28" s="0">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>30</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="0">
+        <v>25</v>
+      </c>
+      <c r="D29" s="0">
+        <v>192</v>
+      </c>
+      <c r="E29" s="0">
+        <v>128</v>
+      </c>
+      <c r="F29" s="0">
+        <v>6</v>
+      </c>
+      <c r="G29" s="0">
+        <v>64</v>
+      </c>
+      <c r="H29" s="0">
+        <v>64</v>
+      </c>
+      <c r="I29" s="0">
+        <v>432</v>
+      </c>
+      <c r="J29" s="0">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>31</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="0">
+        <v>4</v>
+      </c>
+      <c r="D30" s="0">
+        <v>64</v>
+      </c>
+      <c r="E30" s="0">
+        <v>64</v>
+      </c>
+      <c r="F30" s="0">
+        <v>4</v>
+      </c>
+      <c r="G30" s="0">
+        <v>16</v>
+      </c>
+      <c r="H30" s="0">
+        <v>64</v>
+      </c>
+      <c r="I30" s="0">
+        <v>416</v>
+      </c>
+      <c r="J30" s="0">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>32</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="0">
+        <v>13</v>
+      </c>
+      <c r="D31" s="0">
+        <v>64</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0">
+        <v>6</v>
+      </c>
+      <c r="G31" s="0">
+        <v>32</v>
+      </c>
+      <c r="H31" s="0">
+        <v>64</v>
+      </c>
+      <c r="I31" s="0">
+        <v>416</v>
+      </c>
+      <c r="J31" s="0">
         <v>240</v>
       </c>
     </row>
